--- a/competition/view_utils/test.xlsx
+++ b/competition/view_utils/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="408">
   <si>
     <t>Australian Society of Graduate Tamils (ASoGT)</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Nishith Rajanbabu</t>
   </si>
   <si>
-    <t>Lower Poetry - Pending</t>
+    <t>Lower Poetry - First Prize (Gold Medal)</t>
   </si>
   <si>
     <t>N002</t>
@@ -67,16 +67,34 @@
     <t>Yuharajan Rajarajan</t>
   </si>
   <si>
+    <t>Lower Poetry - Second Prize (Silver Medal)</t>
+  </si>
+  <si>
     <t>N003</t>
   </si>
   <si>
+    <t>N1505</t>
+  </si>
+  <si>
+    <t>Rishikaran Sakilan</t>
+  </si>
+  <si>
+    <t>Lower Poetry - Third Prize (Bronze Medal)</t>
+  </si>
+  <si>
+    <t>N004</t>
+  </si>
+  <si>
     <t>VIC00216</t>
   </si>
   <si>
     <t>Surapiga Sujeendran</t>
   </si>
   <si>
-    <t>N004</t>
+    <t>Lower Poetry - Grade A</t>
+  </si>
+  <si>
+    <t>N005</t>
   </si>
   <si>
     <t>VIC00191</t>
@@ -85,7 +103,7 @@
     <t>Aarabi Thirumavalavan</t>
   </si>
   <si>
-    <t>N005</t>
+    <t>N006</t>
   </si>
   <si>
     <t>VIC00121</t>
@@ -94,7 +112,7 @@
     <t>Subikshaa Pirapagaran</t>
   </si>
   <si>
-    <t>N006</t>
+    <t>N007</t>
   </si>
   <si>
     <t>SA1043</t>
@@ -103,7 +121,7 @@
     <t>Dhanusuya Nageswaren</t>
   </si>
   <si>
-    <t>N007</t>
+    <t>N008</t>
   </si>
   <si>
     <t>SA1032</t>
@@ -112,7 +130,7 @@
     <t>Valarmathi Rajesh</t>
   </si>
   <si>
-    <t>N008</t>
+    <t>N009</t>
   </si>
   <si>
     <t>QLD1084</t>
@@ -121,7 +139,7 @@
     <t>Sahana Menon</t>
   </si>
   <si>
-    <t>N009</t>
+    <t>N010</t>
   </si>
   <si>
     <t>QLD1077</t>
@@ -130,7 +148,7 @@
     <t>Shashaa Logitharan</t>
   </si>
   <si>
-    <t>N010</t>
+    <t>N011</t>
   </si>
   <si>
     <t>QLD1054</t>
@@ -139,7 +157,7 @@
     <t>Aataby Nesakumar</t>
   </si>
   <si>
-    <t>N011</t>
+    <t>N012</t>
   </si>
   <si>
     <t>QLD1040</t>
@@ -148,7 +166,7 @@
     <t>Krishanth Varathan</t>
   </si>
   <si>
-    <t>N012</t>
+    <t>N013</t>
   </si>
   <si>
     <t>QLD1007</t>
@@ -157,7 +175,7 @@
     <t>Shakeeran Disotharan</t>
   </si>
   <si>
-    <t>N013</t>
+    <t>N014</t>
   </si>
   <si>
     <t>N1625</t>
@@ -166,7 +184,7 @@
     <t>Joana Josie Alwin Prabakaradhas</t>
   </si>
   <si>
-    <t>N014</t>
+    <t>N015</t>
   </si>
   <si>
     <t>N1581</t>
@@ -175,7 +193,7 @@
     <t>Poornisha Sooriyakumar</t>
   </si>
   <si>
-    <t>N015</t>
+    <t>N016</t>
   </si>
   <si>
     <t>N1545</t>
@@ -184,15 +202,6 @@
     <t>Asvin Suganthan</t>
   </si>
   <si>
-    <t>N016</t>
-  </si>
-  <si>
-    <t>N1505</t>
-  </si>
-  <si>
-    <t>Rishikaran Sakilan</t>
-  </si>
-  <si>
     <t>N017</t>
   </si>
   <si>
@@ -247,7 +256,7 @@
     <t>Aaryan Aravidan</t>
   </si>
   <si>
-    <t>Intermediate Speech - Pending</t>
+    <t>Intermediate Speech - Grade A</t>
   </si>
   <si>
     <t>N023</t>
@@ -472,13 +481,58 @@
     <t>N042</t>
   </si>
   <si>
+    <t>VIC00071</t>
+  </si>
+  <si>
+    <t>Suvaathy Suntharamohan</t>
+  </si>
+  <si>
+    <t>Intermediate Speech - First Prize (Gold Medal)</t>
+  </si>
+  <si>
+    <t>N043</t>
+  </si>
+  <si>
+    <t>SA1015</t>
+  </si>
+  <si>
+    <t>Logitha Barthlote</t>
+  </si>
+  <si>
+    <t>Intermediate Speech - Second Prize (Silver Medal)</t>
+  </si>
+  <si>
+    <t>N044</t>
+  </si>
+  <si>
+    <t>VIC00074</t>
+  </si>
+  <si>
+    <t>Anujan Vijayarajan</t>
+  </si>
+  <si>
+    <t>Intermediate Speech - Third Prize (Bronze Medal)</t>
+  </si>
+  <si>
+    <t>N045</t>
+  </si>
+  <si>
+    <t>QLD1083</t>
+  </si>
+  <si>
+    <t>Yuvadev Menon</t>
+  </si>
+  <si>
+    <t>N046</t>
+  </si>
+  <si>
     <t>VIC00580</t>
   </si>
   <si>
     <t>Vinujan Pirapakaran</t>
   </si>
   <si>
-    <t>N043</t>
+    <t>N047</t>
   </si>
   <si>
     <t>VIC00160</t>
@@ -487,7 +541,7 @@
     <t>Avishneah Janasuthan</t>
   </si>
   <si>
-    <t>N044</t>
+    <t>N048</t>
   </si>
   <si>
     <t>VIC00115</t>
@@ -496,25 +550,7 @@
     <t>Vidhujan Sivasuthan</t>
   </si>
   <si>
-    <t>N045</t>
-  </si>
-  <si>
-    <t>VIC00074</t>
-  </si>
-  <si>
-    <t>Anujan Vijayarajan</t>
-  </si>
-  <si>
-    <t>N046</t>
-  </si>
-  <si>
-    <t>VIC00071</t>
-  </si>
-  <si>
-    <t>Suvaathy Suntharamohan</t>
-  </si>
-  <si>
-    <t>N047</t>
+    <t>N049</t>
   </si>
   <si>
     <t>SA1017</t>
@@ -523,16 +559,7 @@
     <t>Pranesh Selvaraj</t>
   </si>
   <si>
-    <t>N048</t>
-  </si>
-  <si>
-    <t>SA1015</t>
-  </si>
-  <si>
-    <t>Logitha Barthlote</t>
-  </si>
-  <si>
-    <t>N049</t>
+    <t>N050</t>
   </si>
   <si>
     <t>SA1005</t>
@@ -541,15 +568,6 @@
     <t>Dhivyesh Sabahson</t>
   </si>
   <si>
-    <t>N050</t>
-  </si>
-  <si>
-    <t>QLD1083</t>
-  </si>
-  <si>
-    <t>Yuvadev Menon</t>
-  </si>
-  <si>
     <t>N051</t>
   </si>
   <si>
@@ -742,19 +760,37 @@
     <t>Senior Writing - Tenth Prize</t>
   </si>
   <si>
-    <t>Senior Speech - Pending</t>
+    <t>Senior Speech - First Prize (Gold Medal)</t>
   </si>
   <si>
     <t>N069</t>
   </si>
   <si>
+    <t>N1191</t>
+  </si>
+  <si>
+    <t>Nitya Nimalan</t>
+  </si>
+  <si>
+    <t>Senior Speech - Second Prize (Silver Medal)</t>
+  </si>
+  <si>
+    <t>Senior Speech - Third Prize (Bronze Medal)</t>
+  </si>
+  <si>
+    <t>Senior Speech - Grade A</t>
+  </si>
+  <si>
+    <t>N070</t>
+  </si>
+  <si>
     <t>VIC00099</t>
   </si>
   <si>
     <t>Thiviya Thevabalan</t>
   </si>
   <si>
-    <t>N070</t>
+    <t>N071</t>
   </si>
   <si>
     <t>VIC00029</t>
@@ -763,7 +799,7 @@
     <t>Javaneesh Janasuthan</t>
   </si>
   <si>
-    <t>N071</t>
+    <t>N072</t>
   </si>
   <si>
     <t>N1674</t>
@@ -772,15 +808,6 @@
     <t>Prascheetha Muruganandam</t>
   </si>
   <si>
-    <t>N072</t>
-  </si>
-  <si>
-    <t>N1191</t>
-  </si>
-  <si>
-    <t>Nitya Nimalan</t>
-  </si>
-  <si>
     <t>N073</t>
   </si>
   <si>
@@ -835,7 +862,13 @@
     <t>Mathuri Durvasan</t>
   </si>
   <si>
-    <t>Advanced Senior Special Poetry (Thirukkural) - Pending</t>
+    <t>Advanced Senior Special Poetry (Thirukkural) - Second Prize (Silver Medal)</t>
+  </si>
+  <si>
+    <t>Advanced Senior Special Poetry (Thirukkural) - Third Prize (Bronze Medal)</t>
+  </si>
+  <si>
+    <t>Advanced Senior Special Poetry (Thirukkural) - Grade A</t>
   </si>
   <si>
     <t>N079</t>
@@ -973,241 +1006,232 @@
     <t>Advanced Senior Writing - Tenth Prize</t>
   </si>
   <si>
+    <t>Advanced Senior Speech - First Prize (Gold Medal)</t>
+  </si>
+  <si>
     <t>N091</t>
   </si>
   <si>
+    <t>VIC00040</t>
+  </si>
+  <si>
+    <t>Gajananan Saieasan</t>
+  </si>
+  <si>
+    <t>Advanced Senior Speech - Second Prize (Silver Medal)</t>
+  </si>
+  <si>
+    <t>N092</t>
+  </si>
+  <si>
     <t>VIC00156</t>
   </si>
   <si>
     <t>Charan Sukumar</t>
   </si>
   <si>
-    <t>Advanced Senior Speech - Pending</t>
-  </si>
-  <si>
-    <t>N092</t>
-  </si>
-  <si>
-    <t>VIC00040</t>
-  </si>
-  <si>
-    <t>Gajananan Saieasan</t>
+    <t>Advanced Senior Speech - Grade A</t>
   </si>
   <si>
     <t>N093</t>
   </si>
   <si>
-    <t>VIC00018</t>
-  </si>
-  <si>
-    <t>Kasthury Shanthakumar</t>
+    <t>VIC00014</t>
+  </si>
+  <si>
+    <t>Samudra Pathmasiri</t>
   </si>
   <si>
     <t>N094</t>
   </si>
   <si>
-    <t>VIC00014</t>
-  </si>
-  <si>
-    <t>Samudra Pathmasiri</t>
+    <t>VIC00007</t>
+  </si>
+  <si>
+    <t>Aaranan Mathiyalagan</t>
   </si>
   <si>
     <t>N095</t>
   </si>
   <si>
-    <t>VIC00007</t>
-  </si>
-  <si>
-    <t>Aaranan Mathiyalagan</t>
+    <t>SA1004</t>
+  </si>
+  <si>
+    <t>Pranika Shanthikumar</t>
   </si>
   <si>
     <t>N096</t>
   </si>
   <si>
-    <t>SA1004</t>
-  </si>
-  <si>
-    <t>Pranika Shanthikumar</t>
+    <t>N1401</t>
+  </si>
+  <si>
+    <t>Vishal Kunnathur Senthilkumar</t>
   </si>
   <si>
     <t>N097</t>
   </si>
   <si>
-    <t>N1401</t>
-  </si>
-  <si>
-    <t>Vishal Kunnathur Senthilkumar</t>
+    <t>N1156</t>
+  </si>
+  <si>
+    <t>Kirishana Gnanaraja</t>
   </si>
   <si>
     <t>N098</t>
   </si>
   <si>
-    <t>N1156</t>
-  </si>
-  <si>
-    <t>Kirishana Gnanaraja</t>
+    <t>N0591</t>
+  </si>
+  <si>
+    <t>Abinayan Rajkumar</t>
   </si>
   <si>
     <t>N099</t>
   </si>
   <si>
-    <t>N0591</t>
-  </si>
-  <si>
-    <t>Abinayan Rajkumar</t>
+    <t>ACT1001</t>
+  </si>
+  <si>
+    <t>Jevishaa Senthilraj</t>
+  </si>
+  <si>
+    <t>Advanced Senior Special Poetry (Thirukkural) - First Prize (Gold Medal)</t>
   </si>
   <si>
     <t>N100</t>
   </si>
   <si>
-    <t>ACT1027</t>
-  </si>
-  <si>
-    <t>Aishvaraya Muthaiah</t>
+    <t>N0702</t>
+  </si>
+  <si>
+    <t>Mahin Velusamy</t>
   </si>
   <si>
     <t>N101</t>
   </si>
   <si>
-    <t>ACT1001</t>
-  </si>
-  <si>
-    <t>Jevishaa Senthilraj</t>
+    <t>N0397</t>
+  </si>
+  <si>
+    <t>Nirosh Prabaharan</t>
   </si>
   <si>
     <t>N102</t>
   </si>
   <si>
-    <t>N0702</t>
-  </si>
-  <si>
-    <t>Mahin Velusamy</t>
+    <t>VIC00039</t>
+  </si>
+  <si>
+    <t>Vaishkarni Saieasan</t>
+  </si>
+  <si>
+    <t>Youth Writing - First Prize (Gold Medal)</t>
   </si>
   <si>
     <t>N103</t>
   </si>
   <si>
-    <t>N0397</t>
-  </si>
-  <si>
-    <t>Nirosh Prabaharan</t>
+    <t>N1893</t>
+  </si>
+  <si>
+    <t>Abarnika Jathy Jeyakumaran</t>
+  </si>
+  <si>
+    <t>Youth Writing - Second Prize (Silver Medal)</t>
   </si>
   <si>
     <t>N104</t>
   </si>
   <si>
-    <t>VIC00039</t>
-  </si>
-  <si>
-    <t>Vaishkarni Saieasan</t>
-  </si>
-  <si>
-    <t>Youth Writing - First Prize (Gold Medal)</t>
+    <t>VIC00710</t>
+  </si>
+  <si>
+    <t>Jayaram Annadurai</t>
+  </si>
+  <si>
+    <t>Youth Writing - Third Prize (Bronze Medal)</t>
   </si>
   <si>
     <t>N105</t>
   </si>
   <si>
-    <t>N1893</t>
-  </si>
-  <si>
-    <t>Abarnika Jathy Jeyakumaran</t>
-  </si>
-  <si>
-    <t>Youth Writing - Second Prize (Silver Medal)</t>
+    <t>N1740</t>
+  </si>
+  <si>
+    <t>Sanmugi Sivakumar</t>
   </si>
   <si>
     <t>N106</t>
   </si>
   <si>
-    <t>VIC00710</t>
-  </si>
-  <si>
-    <t>Jayaram Annadurai</t>
-  </si>
-  <si>
-    <t>Youth Writing - Third Prize (Bronze Medal)</t>
+    <t>N1414</t>
+  </si>
+  <si>
+    <t>Moses Nadarajah</t>
+  </si>
+  <si>
+    <t>Youth Writing - Fifth Prize</t>
   </si>
   <si>
     <t>N107</t>
   </si>
   <si>
-    <t>N1740</t>
-  </si>
-  <si>
-    <t>Sanmugi Sivakumar</t>
+    <t>VIC00023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gokul Sridaran </t>
+  </si>
+  <si>
+    <t>Youth Writing - Sixth Prize</t>
   </si>
   <si>
     <t>N108</t>
   </si>
   <si>
-    <t>N1414</t>
-  </si>
-  <si>
-    <t>Moses Nadarajah</t>
-  </si>
-  <si>
-    <t>Youth Writing - Fifth Prize</t>
+    <t>N1509</t>
+  </si>
+  <si>
+    <t>Prithi Sakthi Sivabalan</t>
+  </si>
+  <si>
+    <t>Youth Writing - Seventh Prize</t>
   </si>
   <si>
     <t>N109</t>
   </si>
   <si>
-    <t>VIC00023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gokul Sridaran </t>
-  </si>
-  <si>
-    <t>Youth Writing - Sixth Prize</t>
+    <t>N2074</t>
+  </si>
+  <si>
+    <t>Angusan Sriskantharajah</t>
+  </si>
+  <si>
+    <t>Youth Writing - Eighth Prize</t>
   </si>
   <si>
     <t>N110</t>
   </si>
   <si>
-    <t>N1509</t>
-  </si>
-  <si>
-    <t>Prithi Sakthi Sivabalan</t>
-  </si>
-  <si>
-    <t>Youth Writing - Seventh Prize</t>
+    <t>N1892</t>
+  </si>
+  <si>
+    <t>Harine Somasundaram</t>
   </si>
   <si>
     <t>N111</t>
   </si>
   <si>
-    <t>N2074</t>
-  </si>
-  <si>
-    <t>Angusan Sriskantharajah</t>
-  </si>
-  <si>
-    <t>Youth Writing - Eighth Prize</t>
+    <t>VIC00793</t>
+  </si>
+  <si>
+    <t>Aparnadharshini Rajinikanth</t>
+  </si>
+  <si>
+    <t>Youth Writing - Tenth Prize</t>
   </si>
   <si>
     <t>N112</t>
-  </si>
-  <si>
-    <t>N1892</t>
-  </si>
-  <si>
-    <t>Harine Somasundaram</t>
-  </si>
-  <si>
-    <t>N113</t>
-  </si>
-  <si>
-    <t>VIC00793</t>
-  </si>
-  <si>
-    <t>Aparnadharshini Rajinikanth</t>
-  </si>
-  <si>
-    <t>Youth Writing - Tenth Prize</t>
-  </si>
-  <si>
-    <t>N114</t>
   </si>
   <si>
     <t>VIC00715</t>
@@ -1620,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1720,7 +1744,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1728,16 +1752,16 @@
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1745,16 +1769,16 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1762,16 +1786,16 @@
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1779,16 +1803,16 @@
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1796,16 +1820,16 @@
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1813,16 +1837,16 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1830,16 +1854,16 @@
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1847,16 +1871,16 @@
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1864,16 +1888,16 @@
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1881,16 +1905,16 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1898,16 +1922,16 @@
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1915,16 +1939,16 @@
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1932,16 +1956,16 @@
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1949,16 +1973,16 @@
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1966,16 +1990,16 @@
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1983,16 +2007,16 @@
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2000,16 +2024,16 @@
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2017,16 +2041,16 @@
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2034,16 +2058,16 @@
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2051,16 +2075,16 @@
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2068,16 +2092,16 @@
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2085,16 +2109,16 @@
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
         <v>80</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2102,16 +2126,16 @@
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2119,16 +2143,16 @@
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2136,16 +2160,16 @@
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2153,16 +2177,16 @@
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2170,16 +2194,16 @@
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2187,16 +2211,16 @@
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2204,16 +2228,16 @@
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
         <v>97</v>
-      </c>
-      <c r="D37" t="s">
-        <v>94</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2221,16 +2245,16 @@
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2238,16 +2262,16 @@
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2255,16 +2279,16 @@
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2272,16 +2296,16 @@
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
         <v>108</v>
-      </c>
-      <c r="D41" t="s">
-        <v>105</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2289,16 +2313,16 @@
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2306,16 +2330,16 @@
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2323,16 +2347,16 @@
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2340,16 +2364,16 @@
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2357,16 +2381,16 @@
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2374,16 +2398,16 @@
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2391,16 +2415,16 @@
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2408,16 +2432,16 @@
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2425,16 +2449,16 @@
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2442,16 +2466,16 @@
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" t="s">
         <v>146</v>
-      </c>
-      <c r="D51" t="s">
-        <v>143</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2459,16 +2483,16 @@
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2476,16 +2500,16 @@
     </row>
     <row r="53" spans="1:5" ht="20" customHeight="1">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2493,16 +2517,16 @@
     </row>
     <row r="54" spans="1:5" ht="20" customHeight="1">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2510,16 +2534,16 @@
     </row>
     <row r="55" spans="1:5" ht="20" customHeight="1">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2527,16 +2551,16 @@
     </row>
     <row r="56" spans="1:5" ht="20" customHeight="1">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2544,16 +2568,16 @@
     </row>
     <row r="57" spans="1:5" ht="20" customHeight="1">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2561,16 +2585,16 @@
     </row>
     <row r="58" spans="1:5" ht="20" customHeight="1">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2578,16 +2602,16 @@
     </row>
     <row r="59" spans="1:5" ht="20" customHeight="1">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2595,16 +2619,16 @@
     </row>
     <row r="60" spans="1:5" ht="20" customHeight="1">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2612,16 +2636,16 @@
     </row>
     <row r="61" spans="1:5" ht="20" customHeight="1">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2629,16 +2653,16 @@
     </row>
     <row r="62" spans="1:5" ht="20" customHeight="1">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2646,16 +2670,16 @@
     </row>
     <row r="63" spans="1:5" ht="20" customHeight="1">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2663,16 +2687,16 @@
     </row>
     <row r="64" spans="1:5" ht="20" customHeight="1">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2680,16 +2704,16 @@
     </row>
     <row r="65" spans="1:5" ht="20" customHeight="1">
       <c r="A65" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2697,16 +2721,16 @@
     </row>
     <row r="66" spans="1:5" ht="20" customHeight="1">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2714,16 +2738,16 @@
     </row>
     <row r="67" spans="1:5" ht="20" customHeight="1">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2731,16 +2755,16 @@
     </row>
     <row r="68" spans="1:5" ht="20" customHeight="1">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D68" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2748,16 +2772,16 @@
     </row>
     <row r="69" spans="1:5" ht="20" customHeight="1">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2765,16 +2789,16 @@
     </row>
     <row r="70" spans="1:5" ht="20" customHeight="1">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2782,16 +2806,16 @@
     </row>
     <row r="71" spans="1:5" ht="20" customHeight="1">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C71" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D71" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2799,16 +2823,16 @@
     </row>
     <row r="72" spans="1:5" ht="20" customHeight="1">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D72" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2816,16 +2840,16 @@
     </row>
     <row r="73" spans="1:5" ht="20" customHeight="1">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D73" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2833,16 +2857,16 @@
     </row>
     <row r="74" spans="1:5" ht="20" customHeight="1">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D74" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2850,16 +2874,16 @@
     </row>
     <row r="75" spans="1:5" ht="20" customHeight="1">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B75" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D75" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2867,16 +2891,16 @@
     </row>
     <row r="76" spans="1:5" ht="20" customHeight="1">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2884,16 +2908,16 @@
     </row>
     <row r="77" spans="1:5" ht="20" customHeight="1">
       <c r="A77" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C77" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D77" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2901,16 +2925,16 @@
     </row>
     <row r="78" spans="1:5" ht="20" customHeight="1">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C78" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D78" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2918,16 +2942,16 @@
     </row>
     <row r="79" spans="1:5" ht="20" customHeight="1">
       <c r="A79" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B79" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D79" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -2935,16 +2959,16 @@
     </row>
     <row r="80" spans="1:5" ht="20" customHeight="1">
       <c r="A80" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="C80" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -2952,16 +2976,16 @@
     </row>
     <row r="81" spans="1:5" ht="20" customHeight="1">
       <c r="A81" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2969,16 +2993,16 @@
     </row>
     <row r="82" spans="1:5" ht="20" customHeight="1">
       <c r="A82" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C82" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D82" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2986,16 +3010,16 @@
     </row>
     <row r="83" spans="1:5" ht="20" customHeight="1">
       <c r="A83" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B83" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D83" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3003,16 +3027,16 @@
     </row>
     <row r="84" spans="1:5" ht="20" customHeight="1">
       <c r="A84" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="C84" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="D84" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3020,16 +3044,16 @@
     </row>
     <row r="85" spans="1:5" ht="20" customHeight="1">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B85" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C85" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3037,16 +3061,16 @@
     </row>
     <row r="86" spans="1:5" ht="20" customHeight="1">
       <c r="A86" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B86" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C86" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D86" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3054,16 +3078,16 @@
     </row>
     <row r="87" spans="1:5" ht="20" customHeight="1">
       <c r="A87" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B87" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C87" t="s">
+        <v>263</v>
+      </c>
+      <c r="D87" t="s">
         <v>254</v>
-      </c>
-      <c r="D87" t="s">
-        <v>242</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3071,16 +3095,16 @@
     </row>
     <row r="88" spans="1:5" ht="20" customHeight="1">
       <c r="A88" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B88" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C88" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3088,16 +3112,16 @@
     </row>
     <row r="89" spans="1:5" ht="20" customHeight="1">
       <c r="A89" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C89" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D89" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3105,16 +3129,16 @@
     </row>
     <row r="90" spans="1:5" ht="20" customHeight="1">
       <c r="A90" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B90" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C90" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D90" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3122,16 +3146,16 @@
     </row>
     <row r="91" spans="1:5" ht="20" customHeight="1">
       <c r="A91" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D91" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3139,16 +3163,16 @@
     </row>
     <row r="92" spans="1:5" ht="20" customHeight="1">
       <c r="A92" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C92" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D92" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3156,16 +3180,16 @@
     </row>
     <row r="93" spans="1:5" ht="20" customHeight="1">
       <c r="A93" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B93" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D93" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3173,16 +3197,16 @@
     </row>
     <row r="94" spans="1:5" ht="20" customHeight="1">
       <c r="A94" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D94" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3190,16 +3214,16 @@
     </row>
     <row r="95" spans="1:5" ht="20" customHeight="1">
       <c r="A95" t="s">
+        <v>208</v>
+      </c>
+      <c r="B95" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" t="s">
         <v>210</v>
       </c>
-      <c r="B95" t="s">
-        <v>211</v>
-      </c>
-      <c r="C95" t="s">
-        <v>212</v>
-      </c>
       <c r="D95" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3207,16 +3231,16 @@
     </row>
     <row r="96" spans="1:5" ht="20" customHeight="1">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="D96" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3224,16 +3248,16 @@
     </row>
     <row r="97" spans="1:5" ht="20" customHeight="1">
       <c r="A97" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3241,16 +3265,16 @@
     </row>
     <row r="98" spans="1:5" ht="20" customHeight="1">
       <c r="A98" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C98" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D98" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3258,16 +3282,16 @@
     </row>
     <row r="99" spans="1:5" ht="20" customHeight="1">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B99" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D99" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3275,16 +3299,16 @@
     </row>
     <row r="100" spans="1:5" ht="20" customHeight="1">
       <c r="A100" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B100" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C100" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3292,16 +3316,16 @@
     </row>
     <row r="101" spans="1:5" ht="20" customHeight="1">
       <c r="A101" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B101" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C101" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D101" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3309,16 +3333,16 @@
     </row>
     <row r="102" spans="1:5" ht="20" customHeight="1">
       <c r="A102" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C102" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D102" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3326,16 +3350,16 @@
     </row>
     <row r="103" spans="1:5" ht="20" customHeight="1">
       <c r="A103" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B103" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C103" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D103" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3343,16 +3367,16 @@
     </row>
     <row r="104" spans="1:5" ht="20" customHeight="1">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B104" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C104" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D104" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3360,16 +3384,16 @@
     </row>
     <row r="105" spans="1:5" ht="20" customHeight="1">
       <c r="A105" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B105" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C105" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D105" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3377,16 +3401,16 @@
     </row>
     <row r="106" spans="1:5" ht="20" customHeight="1">
       <c r="A106" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B106" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C106" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D106" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3394,16 +3418,16 @@
     </row>
     <row r="107" spans="1:5" ht="20" customHeight="1">
       <c r="A107" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B107" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C107" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="D107" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3411,16 +3435,16 @@
     </row>
     <row r="108" spans="1:5" ht="20" customHeight="1">
       <c r="A108" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B108" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C108" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="D108" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -3428,16 +3452,16 @@
     </row>
     <row r="109" spans="1:5" ht="20" customHeight="1">
       <c r="A109" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B109" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C109" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D109" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3445,16 +3469,16 @@
     </row>
     <row r="110" spans="1:5" ht="20" customHeight="1">
       <c r="A110" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B110" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C110" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="D110" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3462,16 +3486,16 @@
     </row>
     <row r="111" spans="1:5" ht="20" customHeight="1">
       <c r="A111" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B111" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C111" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D111" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3479,16 +3503,16 @@
     </row>
     <row r="112" spans="1:5" ht="20" customHeight="1">
       <c r="A112" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B112" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C112" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="D112" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3496,16 +3520,16 @@
     </row>
     <row r="113" spans="1:5" ht="20" customHeight="1">
       <c r="A113" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B113" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C113" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="D113" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -3513,16 +3537,16 @@
     </row>
     <row r="114" spans="1:5" ht="20" customHeight="1">
       <c r="A114" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B114" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C114" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D114" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -3530,16 +3554,16 @@
     </row>
     <row r="115" spans="1:5" ht="20" customHeight="1">
       <c r="A115" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B115" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C115" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="D115" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -3547,16 +3571,16 @@
     </row>
     <row r="116" spans="1:5" ht="20" customHeight="1">
       <c r="A116" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B116" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C116" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D116" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -3564,16 +3588,16 @@
     </row>
     <row r="117" spans="1:5" ht="20" customHeight="1">
       <c r="A117" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B117" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C117" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D117" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -3581,16 +3605,16 @@
     </row>
     <row r="118" spans="1:5" ht="20" customHeight="1">
       <c r="A118" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B118" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C118" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D118" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -3598,16 +3622,16 @@
     </row>
     <row r="119" spans="1:5" ht="20" customHeight="1">
       <c r="A119" t="s">
+        <v>345</v>
+      </c>
+      <c r="B119" t="s">
+        <v>346</v>
+      </c>
+      <c r="C119" t="s">
+        <v>347</v>
+      </c>
+      <c r="D119" t="s">
         <v>338</v>
-      </c>
-      <c r="B119" t="s">
-        <v>339</v>
-      </c>
-      <c r="C119" t="s">
-        <v>340</v>
-      </c>
-      <c r="D119" t="s">
-        <v>322</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -3615,16 +3639,16 @@
     </row>
     <row r="120" spans="1:5" ht="20" customHeight="1">
       <c r="A120" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C120" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D120" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -3632,16 +3656,16 @@
     </row>
     <row r="121" spans="1:5" ht="20" customHeight="1">
       <c r="A121" t="s">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="B121" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="C121" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="D121" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -3649,16 +3673,16 @@
     </row>
     <row r="122" spans="1:5" ht="20" customHeight="1">
       <c r="A122" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="B122" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="C122" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="D122" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -3666,16 +3690,16 @@
     </row>
     <row r="123" spans="1:5" ht="20" customHeight="1">
       <c r="A123" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="C123" t="s">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="D123" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -3683,16 +3707,16 @@
     </row>
     <row r="124" spans="1:5" ht="20" customHeight="1">
       <c r="A124" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="B124" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="C124" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="D124" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -3700,16 +3724,16 @@
     </row>
     <row r="125" spans="1:5" ht="20" customHeight="1">
       <c r="A125" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="B125" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="C125" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="D125" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -3717,16 +3741,16 @@
     </row>
     <row r="126" spans="1:5" ht="20" customHeight="1">
       <c r="A126" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B126" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C126" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D126" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -3734,16 +3758,16 @@
     </row>
     <row r="127" spans="1:5" ht="20" customHeight="1">
       <c r="A127" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B127" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C127" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="D127" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -3751,16 +3775,16 @@
     </row>
     <row r="128" spans="1:5" ht="20" customHeight="1">
       <c r="A128" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="B128" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="C128" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="D128" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -3768,16 +3792,16 @@
     </row>
     <row r="129" spans="1:5" ht="20" customHeight="1">
       <c r="A129" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B129" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C129" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="D129" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -3785,16 +3809,16 @@
     </row>
     <row r="130" spans="1:5" ht="20" customHeight="1">
       <c r="A130" t="s">
+        <v>311</v>
+      </c>
+      <c r="B130" t="s">
+        <v>312</v>
+      </c>
+      <c r="C130" t="s">
+        <v>313</v>
+      </c>
+      <c r="D130" t="s">
         <v>284</v>
-      </c>
-      <c r="B130" t="s">
-        <v>285</v>
-      </c>
-      <c r="C130" t="s">
-        <v>286</v>
-      </c>
-      <c r="D130" t="s">
-        <v>273</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -3802,16 +3826,16 @@
     </row>
     <row r="131" spans="1:5" ht="20" customHeight="1">
       <c r="A131" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B131" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C131" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D131" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -3819,16 +3843,16 @@
     </row>
     <row r="132" spans="1:5" ht="20" customHeight="1">
       <c r="A132" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="B132" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="C132" t="s">
-        <v>302</v>
+        <v>369</v>
       </c>
       <c r="D132" t="s">
-        <v>273</v>
+        <v>370</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -3836,16 +3860,16 @@
     </row>
     <row r="133" spans="1:5" ht="20" customHeight="1">
       <c r="A133" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="B133" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="C133" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="D133" t="s">
-        <v>273</v>
+        <v>374</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -3853,16 +3877,16 @@
     </row>
     <row r="134" spans="1:5" ht="20" customHeight="1">
       <c r="A134" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C134" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="D134" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -3870,16 +3894,16 @@
     </row>
     <row r="135" spans="1:5" ht="20" customHeight="1">
       <c r="A135" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="B135" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C135" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D135" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -3887,16 +3911,16 @@
     </row>
     <row r="136" spans="1:5" ht="20" customHeight="1">
       <c r="A136" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B136" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="C136" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D136" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -3904,16 +3928,16 @@
     </row>
     <row r="137" spans="1:5" ht="20" customHeight="1">
       <c r="A137" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="B137" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C137" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="D137" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -3921,16 +3945,16 @@
     </row>
     <row r="138" spans="1:5" ht="20" customHeight="1">
       <c r="A138" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="B138" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C138" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="D138" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -3938,16 +3962,16 @@
     </row>
     <row r="139" spans="1:5" ht="20" customHeight="1">
       <c r="A139" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="B139" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C139" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="D139" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -3955,16 +3979,16 @@
     </row>
     <row r="140" spans="1:5" ht="20" customHeight="1">
       <c r="A140" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B140" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C140" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="D140" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -3972,16 +3996,16 @@
     </row>
     <row r="141" spans="1:5" ht="20" customHeight="1">
       <c r="A141" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="B141" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C141" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D141" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -3989,52 +4013,18 @@
     </row>
     <row r="142" spans="1:5" ht="20" customHeight="1">
       <c r="A142" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="B142" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C142" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D142" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="E142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="20" customHeight="1">
-      <c r="A143" t="s">
-        <v>393</v>
-      </c>
-      <c r="B143" t="s">
-        <v>394</v>
-      </c>
-      <c r="C143" t="s">
-        <v>395</v>
-      </c>
-      <c r="D143" t="s">
-        <v>396</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="20" customHeight="1">
-      <c r="A144" t="s">
-        <v>397</v>
-      </c>
-      <c r="B144" t="s">
-        <v>398</v>
-      </c>
-      <c r="C144" t="s">
-        <v>399</v>
-      </c>
-      <c r="D144" t="s">
-        <v>396</v>
-      </c>
-      <c r="E144">
         <v>1</v>
       </c>
     </row>
